--- a/Data/56_O2+H_O+OH/56_O2+H_O+OH.xlsx
+++ b/Data/56_O2+H_O+OH/56_O2+H_O+OH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Rxr\Select_reaction_species\UnionReaction\Uncertainty optimization Arrhenius\1Uncertainty\Data_convert\overall_520\Data\56_O2+H_O+OH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Rxr\Select_reaction_species\UnionReaction\Uncertainty optimization Arrhenius\1Uncertainty\Data_convert\rxr_uncertainty_overall\Data\56_O2+H_O+OH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44655DF0-D3F6-49E9-B694-D4DA6451CA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D819BBD5-919C-41B4-8D2E-F26DA6C439ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38775" yWindow="45" windowWidth="24285" windowHeight="20295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50280" yWindow="3030" windowWidth="20250" windowHeight="17355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -557,7 +557,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,6 +618,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -652,7 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -687,6 +695,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1006,14 +1017,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>214313</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>319088</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1023,7 +1034,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D627BA7-0639-FE5F-A700-64759F1E2B31}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1056,14 +1067,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>523875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>314325</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1073,7 +1084,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B43421-D8FA-B319-CA2A-17EA11CF37C5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1106,14 +1117,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>519113</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>309563</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1123,7 +1134,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF35976-256A-B11D-D957-B35B9FE5C8DD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1156,14 +1167,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>471488</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>309563</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1173,7 +1184,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD5CA58-D08C-2062-A6C0-0C0289EFC80D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1206,14 +1217,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>514350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1223,7 +1234,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492D2357-2980-6A14-8EA3-82612C71B240}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1256,14 +1267,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>509588</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>300038</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1273,7 +1284,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2021967-ACBA-8955-1A76-9D59D8EC3A84}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1306,14 +1317,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>504825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1323,7 +1334,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{481CAA97-FA17-008F-EC62-7C6C6224B0B1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1356,14 +1367,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>500063</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>290513</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1373,7 +1384,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1777996-5853-5AAE-BF77-C2FA6C3855DF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1406,14 +1417,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>495300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1423,7 +1434,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41404E4A-9A14-E56B-96BE-0558465847F6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1456,14 +1467,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>490538</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>280988</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1473,7 +1484,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C74024A0-B8E4-A8F6-DFDE-FE9DD8D74FD4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1506,14 +1517,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>442913</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>280988</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1523,7 +1534,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05F1806F-28B9-24A9-E161-EA9DEC2A742B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1556,14 +1567,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>442913</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>280988</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1573,7 +1584,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D57B7F62-BC31-D866-9818-CBC50690755B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1606,14 +1617,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>442913</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>280988</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1623,7 +1634,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E7325D4-1C2B-9A31-EDC7-3F600EE6ABB3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1656,14 +1667,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>442913</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>280988</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1673,7 +1684,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3843B5F-EEE5-098B-CE82-0B46D6769A48}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1706,14 +1717,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>442913</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>280988</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1723,7 +1734,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FDFAC6D-6927-1293-C01A-9E12928559D5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1756,14 +1767,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1773,7 +1784,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2361D27-4B4A-4DFC-BE5C-0FD46C100731}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1806,14 +1817,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>438150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1823,7 +1834,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B4F09C-0F49-3749-2E7B-42B484A763A1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1856,14 +1867,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>438150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1873,7 +1884,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87BE3A49-F8D5-CF7E-B88C-C4C5C7155A13}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1906,14 +1917,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>438150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1923,7 +1934,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CE236E-4C6E-B0C0-A5A2-AF9BB64C3077}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1956,14 +1967,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1973,7 +1984,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAD53448-BF5F-B79A-5630-9D5EE5351DD1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2006,14 +2017,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>471488</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>261938</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2023,7 +2034,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49883671-72F0-ED73-8655-F81F1F44FF39}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2056,14 +2067,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>466725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2073,7 +2084,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22449001-25C6-A14B-73D2-2B1BB841BAF9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2106,14 +2117,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>461963</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>252413</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2123,7 +2134,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0465BED-37EB-B46C-9C1D-BFE8D984F790}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2156,14 +2167,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>457200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2173,7 +2184,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AAEEF2F-59C3-62E4-FC8A-970621440AD0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2206,14 +2217,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>452438</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>242888</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2223,7 +2234,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED26986B-0C30-97CA-0AB7-EB4ED0E69E0E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2256,14 +2267,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>447675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2273,7 +2284,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47906B0A-058B-AF32-75EC-08A6820C3998}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2306,14 +2317,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>442913</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>233363</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2323,7 +2334,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{200B6EA9-7CA6-07E5-0715-88A43A070795}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2356,14 +2367,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>438150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2373,7 +2384,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EED5248-4454-477C-5AD6-F10E4B6960DF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2406,14 +2417,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2423,7 +2434,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9489CCE5-232D-E071-D2E0-4D11CA4C709D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2456,14 +2467,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2473,7 +2484,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3856D00B-E900-CA74-846D-6D3CFC6C7CAC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2506,14 +2517,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2523,7 +2534,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFBA45E4-37F5-9FD1-52A9-2D589C2BE013}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2556,14 +2567,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2573,7 +2584,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A285B3CB-2F63-1F0A-B7F6-9D9DA623573D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2606,14 +2617,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2623,7 +2634,7 @@
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D54722-7BBC-83B3-6289-E2AA785218FA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2656,14 +2667,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2673,7 +2684,7 @@
                   <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35C7D33-B1FF-DB6C-844F-839ADA790C82}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2706,14 +2717,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2723,7 +2734,7 @@
                   <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11DF7791-8BE8-7DF6-E602-9CCE5A43BCC0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2756,14 +2767,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2773,7 +2784,7 @@
                   <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4502E733-2274-4067-5523-1CA65962813E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2806,14 +2817,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2823,7 +2834,7 @@
                   <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F28D8310-4643-4EEE-F05F-ACEB48F87ECC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2856,14 +2867,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2873,7 +2884,7 @@
                   <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5FF74C8-5093-C9AA-8A16-4FCDAE0D9091}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2906,14 +2917,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2923,7 +2934,7 @@
                   <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{452D850B-DB68-2162-977B-4386916EB99D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2956,14 +2967,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2973,7 +2984,7 @@
                   <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C1B80A-F572-270B-21A0-F3E0AE36FC83}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3006,14 +3017,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3023,7 +3034,7 @@
                   <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C00F895-329E-9129-1EEE-FD5917638650}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3056,14 +3067,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3073,7 +3084,7 @@
                   <a14:compatExt spid="_x0000_s1066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CB2D233-D6B0-64F8-2D1D-0552B3EF2B41}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3106,14 +3117,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3123,7 +3134,7 @@
                   <a14:compatExt spid="_x0000_s1067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5271F75-A01A-BADA-822B-909A988E3AD5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3156,14 +3167,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3173,7 +3184,7 @@
                   <a14:compatExt spid="_x0000_s1068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD3AD2CB-250E-17B9-F6D6-B0618BA17BBE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3206,14 +3217,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3223,7 +3234,7 @@
                   <a14:compatExt spid="_x0000_s1069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22BC1905-7B91-E01B-D21E-9EB16B939C8B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3256,14 +3267,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3273,7 +3284,7 @@
                   <a14:compatExt spid="_x0000_s1070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B90623FB-ECFD-8A41-8D7A-3B74B210B1F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3306,14 +3317,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3323,7 +3334,7 @@
                   <a14:compatExt spid="_x0000_s1071"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1374031-DBC0-1075-BA23-E2863A498DD6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3356,14 +3367,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>433388</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>223838</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3373,7 +3384,7 @@
                   <a14:compatExt spid="_x0000_s1072"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A387237-8592-B50E-028B-71E9315EF284}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3406,14 +3417,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>385763</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>223838</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3423,7 +3434,7 @@
                   <a14:compatExt spid="_x0000_s1073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2776898-9263-D1C8-C292-99101DFB61EF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3456,14 +3467,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>385763</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>223838</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3473,7 +3484,7 @@
                   <a14:compatExt spid="_x0000_s1074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C69042F-6B28-D6DC-5021-D37A5EEFD3C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3506,14 +3517,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>428625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>219075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3523,7 +3534,7 @@
                   <a14:compatExt spid="_x0000_s1075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59263BEC-1DEF-8DAA-69AF-5236D8CAE461}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3556,14 +3567,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>55</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>381000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>219075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3573,7 +3584,7 @@
                   <a14:compatExt spid="_x0000_s1076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71B2FA5-FD03-391B-CBCD-F9FB43A9ECB3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3606,14 +3617,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>56</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>381000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>219075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3623,7 +3634,7 @@
                   <a14:compatExt spid="_x0000_s1077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59BA8839-EF83-52AF-7A79-B9D9E589E01E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3656,14 +3667,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>423863</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>214313</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3673,7 +3684,7 @@
                   <a14:compatExt spid="_x0000_s1078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62DCFC6-0C04-0885-67A1-67143C81EF20}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3706,14 +3717,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>376238</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>214313</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3723,7 +3734,7 @@
                   <a14:compatExt spid="_x0000_s1079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B096248-4E9F-8CB0-EA48-306BE7890311}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3756,14 +3767,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>59</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>376238</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>214313</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3773,7 +3784,7 @@
                   <a14:compatExt spid="_x0000_s1080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE1B49B-0D8A-94A2-4531-7B28E054A7FB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3806,14 +3817,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>60</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>376238</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>214313</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3823,7 +3834,7 @@
                   <a14:compatExt spid="_x0000_s1081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB082650-0FED-0A56-1D49-3F0A53FD62A4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3856,14 +3867,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>61</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>242888</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>214313</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3873,7 +3884,7 @@
                   <a14:compatExt spid="_x0000_s1082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F6DF91-E58D-36DC-3845-D1CA0FE630B9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3906,14 +3917,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>62</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>376238</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>62</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>214313</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3923,7 +3934,7 @@
                   <a14:compatExt spid="_x0000_s1083"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F7C460-A6A5-008D-FBA2-3D4A4F3DF802}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3956,14 +3967,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>63</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>376238</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>214313</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3973,7 +3984,7 @@
                   <a14:compatExt spid="_x0000_s1084"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DAEAD7C-0A09-A219-46D4-A2833E40135D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4006,14 +4017,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>64</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>63</xdr:row>
+          <xdr:rowOff>419100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4023,7 +4034,7 @@
                   <a14:compatExt spid="_x0000_s1085"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{995DF4F6-AC9F-9348-BCC8-5BA41CE1A09F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4056,14 +4067,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>65</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>414338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>65</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>204788</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4073,7 +4084,7 @@
                   <a14:compatExt spid="_x0000_s1086"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9C2C2E-38E1-2894-FFA5-DB1680937435}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4106,14 +4117,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>66</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>65</xdr:row>
+          <xdr:rowOff>366713</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>204788</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4123,7 +4134,7 @@
                   <a14:compatExt spid="_x0000_s1087"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B8EA70-1C19-9905-435D-1BCDB7038ECF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4156,14 +4167,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>67</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>366713</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>204788</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4173,7 +4184,7 @@
                   <a14:compatExt spid="_x0000_s1088"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C317493A-7484-1AD0-62F5-8AC4E731EBF8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4206,14 +4217,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>68</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>200025</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4223,7 +4234,7 @@
                   <a14:compatExt spid="_x0000_s1089"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA5E564-5D81-4983-BAAD-9A0492B0663C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4256,14 +4267,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>69</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>200025</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4273,7 +4284,7 @@
                   <a14:compatExt spid="_x0000_s1090"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2104399E-9FDB-AE75-099E-F02B0790AFB4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4306,14 +4317,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>77</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>376238</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>77</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>166688</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4323,7 +4334,7 @@
                   <a14:compatExt spid="_x0000_s1091"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B7D333-94B3-8CDF-4348-44B377EC49D0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4356,14 +4367,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>78</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>78</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4373,7 +4384,7 @@
                   <a14:compatExt spid="_x0000_s1092"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8799CA48-EEC9-167E-2C63-C2E6DDD299D2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4406,14 +4417,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>79</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>366713</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>79</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>157163</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4423,7 +4434,7 @@
                   <a14:compatExt spid="_x0000_s1093"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F37F4DBF-0E2D-796E-85EA-EB3A38F59337}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4456,14 +4467,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>80</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>319088</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>157163</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4473,7 +4484,7 @@
                   <a14:compatExt spid="_x0000_s1094"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1DC33FA-AFD9-25E1-40BC-C806521B03E3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4506,14 +4517,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>81</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>319088</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>81</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>157163</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4523,7 +4534,7 @@
                   <a14:compatExt spid="_x0000_s1095"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7027E7FD-A82C-7D24-B00F-E2A1EAB9B89C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4556,14 +4567,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>82</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>319088</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>82</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>157163</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4573,7 +4584,7 @@
                   <a14:compatExt spid="_x0000_s1096"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF05E27-0044-748E-BA58-3F0744104198}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4606,14 +4617,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>83</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>82</xdr:row>
+          <xdr:rowOff>319088</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
+          <xdr:rowOff>157163</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4623,7 +4634,7 @@
                   <a14:compatExt spid="_x0000_s1097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C74123-A790-AD9A-3DF5-4A41303432A6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4919,8 +4930,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -4937,7 +4948,7 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="13" t="s">
         <v>140</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -7391,19 +7402,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1097" r:id="rId80" name="Control 73">
+        <control shapeId="1025" r:id="rId80" name="Control 1">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>83</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>83</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>323850</xdr:rowOff>
               </to>
             </anchor>
@@ -7411,882 +7422,882 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1097" r:id="rId80" name="Control 73"/>
+        <control shapeId="1025" r:id="rId80" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId82" name="Control 72">
+        <control shapeId="1026" r:id="rId82" name="Control 2">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>82</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>523875</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>82</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>314325</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1096" r:id="rId82" name="Control 72"/>
+        <control shapeId="1026" r:id="rId82" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1095" r:id="rId83" name="Control 71">
+        <control shapeId="1027" r:id="rId83" name="Control 3">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>81</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>519113</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>81</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>314325</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1095" r:id="rId83" name="Control 71"/>
+        <control shapeId="1027" r:id="rId83" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1094" r:id="rId84" name="Control 70">
+        <control shapeId="1028" r:id="rId84" name="Control 4">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>80</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>471488</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>80</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>314325</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1094" r:id="rId84" name="Control 70"/>
+        <control shapeId="1028" r:id="rId84" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1093" r:id="rId85" name="Control 69">
+        <control shapeId="1029" r:id="rId85" name="Control 5">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>79</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>514350</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>79</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>304800</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1093" r:id="rId85" name="Control 69"/>
+        <control shapeId="1029" r:id="rId85" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId86" name="Control 68">
+        <control shapeId="1030" r:id="rId86" name="Control 6">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>78</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>509588</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>78</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>304800</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1092" r:id="rId86" name="Control 68"/>
+        <control shapeId="1030" r:id="rId86" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId87" name="Control 67">
+        <control shapeId="1031" r:id="rId87" name="Control 7">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>77</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>504825</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>77</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>295275</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1091" r:id="rId87" name="Control 67"/>
+        <control shapeId="1031" r:id="rId87" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId88" name="Control 66">
+        <control shapeId="1032" r:id="rId88" name="Control 8">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>500063</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>69</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>295275</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1090" r:id="rId88" name="Control 66"/>
+        <control shapeId="1032" r:id="rId88" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId89" name="Control 65">
+        <control shapeId="1033" r:id="rId89" name="Control 9">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>495300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>285750</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1089" r:id="rId89" name="Control 65"/>
+        <control shapeId="1033" r:id="rId89" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId90" name="Control 64">
+        <control shapeId="1034" r:id="rId90" name="Control 10">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>490538</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>285750</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1088" r:id="rId90" name="Control 64"/>
+        <control shapeId="1034" r:id="rId90" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1087" r:id="rId91" name="Control 63">
+        <control shapeId="1035" r:id="rId91" name="Control 11">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>66</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>442913</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>66</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>285750</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1087" r:id="rId91" name="Control 63"/>
+        <control shapeId="1035" r:id="rId91" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1086" r:id="rId92" name="Control 62">
+        <control shapeId="1036" r:id="rId92" name="Control 12">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>442913</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>285750</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1086" r:id="rId92" name="Control 62"/>
+        <control shapeId="1036" r:id="rId92" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1085" r:id="rId93" name="Control 61">
+        <control shapeId="1037" r:id="rId93" name="Control 13">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>442913</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>285750</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1085" r:id="rId93" name="Control 61"/>
+        <control shapeId="1037" r:id="rId93" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1084" r:id="rId94" name="Control 60">
+        <control shapeId="1038" r:id="rId94" name="Control 14">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>63</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>442913</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>63</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>285750</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1084" r:id="rId94" name="Control 60"/>
+        <control shapeId="1038" r:id="rId94" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1083" r:id="rId95" name="Control 59">
+        <control shapeId="1039" r:id="rId95" name="Control 15">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>442913</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>285750</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1083" r:id="rId95" name="Control 59"/>
+        <control shapeId="1039" r:id="rId95" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1082" r:id="rId96" name="Control 58">
+        <control shapeId="1040" r:id="rId96" name="Control 16">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>61</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>485775</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>61</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1082" r:id="rId96" name="Control 58"/>
+        <control shapeId="1040" r:id="rId96" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1081" r:id="rId97" name="Control 57">
+        <control shapeId="1041" r:id="rId97" name="Control 17">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>60</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>438150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>60</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1081" r:id="rId97" name="Control 57"/>
+        <control shapeId="1041" r:id="rId97" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1080" r:id="rId98" name="Control 56">
+        <control shapeId="1042" r:id="rId98" name="Control 18">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>438150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>59</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1080" r:id="rId98" name="Control 56"/>
+        <control shapeId="1042" r:id="rId98" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1079" r:id="rId99" name="Control 55">
+        <control shapeId="1043" r:id="rId99" name="Control 19">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>438150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>58</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1079" r:id="rId99" name="Control 55"/>
+        <control shapeId="1043" r:id="rId99" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1078" r:id="rId100" name="Control 54">
+        <control shapeId="1044" r:id="rId100" name="Control 20">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>57</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>57</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1078" r:id="rId100" name="Control 54"/>
+        <control shapeId="1044" r:id="rId100" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1077" r:id="rId101" name="Control 53">
+        <control shapeId="1045" r:id="rId101" name="Control 21">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>471488</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>266700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1077" r:id="rId101" name="Control 53"/>
+        <control shapeId="1045" r:id="rId101" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1076" r:id="rId102" name="Control 52">
+        <control shapeId="1046" r:id="rId102" name="Control 22">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>55</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>466725</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>55</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1076" r:id="rId102" name="Control 52"/>
+        <control shapeId="1046" r:id="rId102" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId103" name="Control 51">
+        <control shapeId="1047" r:id="rId103" name="Control 23">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>461963</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>54</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1075" r:id="rId103" name="Control 51"/>
+        <control shapeId="1047" r:id="rId103" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId104" name="Control 50">
+        <control shapeId="1048" r:id="rId104" name="Control 24">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>457200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>247650</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1074" r:id="rId104" name="Control 50"/>
+        <control shapeId="1048" r:id="rId104" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId105" name="Control 49">
+        <control shapeId="1049" r:id="rId105" name="Control 25">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>52</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>452438</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>52</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>247650</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1073" r:id="rId105" name="Control 49"/>
+        <control shapeId="1049" r:id="rId105" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId106" name="Control 48">
+        <control shapeId="1050" r:id="rId106" name="Control 26">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>447675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1072" r:id="rId106" name="Control 48"/>
+        <control shapeId="1050" r:id="rId106" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId107" name="Control 47">
+        <control shapeId="1051" r:id="rId107" name="Control 27">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>50</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>442913</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>50</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1071" r:id="rId107" name="Control 47"/>
+        <control shapeId="1051" r:id="rId107" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId108" name="Control 46">
+        <control shapeId="1052" r:id="rId108" name="Control 28">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>438150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1070" r:id="rId108" name="Control 46"/>
+        <control shapeId="1052" r:id="rId108" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId109" name="Control 45">
+        <control shapeId="1053" r:id="rId109" name="Control 29">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>48</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>48</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1069" r:id="rId109" name="Control 45"/>
+        <control shapeId="1053" r:id="rId109" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId110" name="Control 44">
+        <control shapeId="1054" r:id="rId110" name="Control 30">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>47</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>47</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1068" r:id="rId110" name="Control 44"/>
+        <control shapeId="1054" r:id="rId110" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId111" name="Control 43">
+        <control shapeId="1055" r:id="rId111" name="Control 31">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1067" r:id="rId111" name="Control 43"/>
+        <control shapeId="1055" r:id="rId111" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId112" name="Control 42">
+        <control shapeId="1056" r:id="rId112" name="Control 32">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>45</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>45</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1066" r:id="rId112" name="Control 42"/>
+        <control shapeId="1056" r:id="rId112" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId113" name="Control 41">
+        <control shapeId="1057" r:id="rId113" name="Control 33">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>44</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>44</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1065" r:id="rId113" name="Control 41"/>
+        <control shapeId="1057" r:id="rId113" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId114" name="Control 40">
+        <control shapeId="1058" r:id="rId114" name="Control 34">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>43</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1064" r:id="rId114" name="Control 40"/>
+        <control shapeId="1058" r:id="rId114" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1063" r:id="rId115" name="Control 39">
+        <control shapeId="1059" r:id="rId115" name="Control 35">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>42</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>42</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1063" r:id="rId115" name="Control 39"/>
+        <control shapeId="1059" r:id="rId115" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId116" name="Control 38">
+        <control shapeId="1060" r:id="rId116" name="Control 36">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1062" r:id="rId116" name="Control 38"/>
+        <control shapeId="1060" r:id="rId116" name="Control 36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8297,14 +8308,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>40</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -8316,902 +8327,902 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId118" name="Control 36">
+        <control shapeId="1062" r:id="rId118" name="Control 38">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1060" r:id="rId118" name="Control 36"/>
+        <control shapeId="1062" r:id="rId118" name="Control 38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId119" name="Control 35">
+        <control shapeId="1063" r:id="rId119" name="Control 39">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1059" r:id="rId119" name="Control 35"/>
+        <control shapeId="1063" r:id="rId119" name="Control 39"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId120" name="Control 34">
+        <control shapeId="1064" r:id="rId120" name="Control 40">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1058" r:id="rId120" name="Control 34"/>
+        <control shapeId="1064" r:id="rId120" name="Control 40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId121" name="Control 33">
+        <control shapeId="1065" r:id="rId121" name="Control 41">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1057" r:id="rId121" name="Control 33"/>
+        <control shapeId="1065" r:id="rId121" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId122" name="Control 32">
+        <control shapeId="1066" r:id="rId122" name="Control 42">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1056" r:id="rId122" name="Control 32"/>
+        <control shapeId="1066" r:id="rId122" name="Control 42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId123" name="Control 31">
+        <control shapeId="1067" r:id="rId123" name="Control 43">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>46</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1055" r:id="rId123" name="Control 31"/>
+        <control shapeId="1067" r:id="rId123" name="Control 43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId124" name="Control 30">
+        <control shapeId="1068" r:id="rId124" name="Control 44">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>46</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1054" r:id="rId124" name="Control 30"/>
+        <control shapeId="1068" r:id="rId124" name="Control 44"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId125" name="Control 29">
+        <control shapeId="1069" r:id="rId125" name="Control 45">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1053" r:id="rId125" name="Control 29"/>
+        <control shapeId="1069" r:id="rId125" name="Control 45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId126" name="Control 28">
+        <control shapeId="1070" r:id="rId126" name="Control 46">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1052" r:id="rId126" name="Control 28"/>
+        <control shapeId="1070" r:id="rId126" name="Control 46"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId127" name="Control 27">
+        <control shapeId="1071" r:id="rId127" name="Control 47">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId127" name="Control 27"/>
+        <control shapeId="1071" r:id="rId127" name="Control 47"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId128" name="Control 26">
+        <control shapeId="1072" r:id="rId128" name="Control 48">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>433388</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId128" name="Control 26"/>
+        <control shapeId="1072" r:id="rId128" name="Control 48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId129" name="Control 25">
+        <control shapeId="1073" r:id="rId129" name="Control 49">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>385763</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1049" r:id="rId129" name="Control 25"/>
+        <control shapeId="1073" r:id="rId129" name="Control 49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId130" name="Control 24">
+        <control shapeId="1074" r:id="rId130" name="Control 50">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>385763</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1048" r:id="rId130" name="Control 24"/>
+        <control shapeId="1074" r:id="rId130" name="Control 50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId131" name="Control 23">
+        <control shapeId="1075" r:id="rId131" name="Control 51">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>428625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>54</xdr:row>
+                <xdr:rowOff>219075</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId131" name="Control 23"/>
+        <control shapeId="1075" r:id="rId131" name="Control 51"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId132" name="Control 22">
+        <control shapeId="1076" r:id="rId132" name="Control 52">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>54</xdr:row>
+                <xdr:rowOff>381000</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>55</xdr:row>
+                <xdr:rowOff>219075</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId132" name="Control 22"/>
+        <control shapeId="1076" r:id="rId132" name="Control 52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId133" name="Control 21">
+        <control shapeId="1077" r:id="rId133" name="Control 53">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>55</xdr:row>
+                <xdr:rowOff>381000</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>56</xdr:row>
+                <xdr:rowOff>219075</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId133" name="Control 21"/>
+        <control shapeId="1077" r:id="rId133" name="Control 53"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId134" name="Control 20">
+        <control shapeId="1078" r:id="rId134" name="Control 54">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>56</xdr:row>
+                <xdr:rowOff>423863</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>57</xdr:row>
+                <xdr:rowOff>219075</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId134" name="Control 20"/>
+        <control shapeId="1078" r:id="rId134" name="Control 54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId135" name="Control 19">
+        <control shapeId="1079" r:id="rId135" name="Control 55">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>57</xdr:row>
+                <xdr:rowOff>376238</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>219075</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId135" name="Control 19"/>
+        <control shapeId="1079" r:id="rId135" name="Control 55"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId136" name="Control 18">
+        <control shapeId="1080" r:id="rId136" name="Control 56">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>376238</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>219075</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId136" name="Control 18"/>
+        <control shapeId="1080" r:id="rId136" name="Control 56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId137" name="Control 17">
+        <control shapeId="1081" r:id="rId137" name="Control 57">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>376238</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>60</xdr:row>
+                <xdr:rowOff>219075</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId137" name="Control 17"/>
+        <control shapeId="1081" r:id="rId137" name="Control 57"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId138" name="Control 16">
+        <control shapeId="1082" r:id="rId138" name="Control 58">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>60</xdr:row>
+                <xdr:rowOff>242888</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>61</xdr:row>
+                <xdr:rowOff>219075</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId138" name="Control 16"/>
+        <control shapeId="1082" r:id="rId138" name="Control 58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId139" name="Control 15">
+        <control shapeId="1083" r:id="rId139" name="Control 59">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>61</xdr:row>
+                <xdr:rowOff>376238</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>219075</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId139" name="Control 15"/>
+        <control shapeId="1083" r:id="rId139" name="Control 59"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId140" name="Control 14">
+        <control shapeId="1084" r:id="rId140" name="Control 60">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>376238</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>63</xdr:row>
+                <xdr:rowOff>219075</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId140" name="Control 14"/>
+        <control shapeId="1084" r:id="rId140" name="Control 60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId141" name="Control 13">
+        <control shapeId="1085" r:id="rId141" name="Control 61">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>63</xdr:row>
+                <xdr:rowOff>419100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId141" name="Control 13"/>
+        <control shapeId="1085" r:id="rId141" name="Control 61"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId142" name="Control 12">
+        <control shapeId="1086" r:id="rId142" name="Control 62">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>414338</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>65</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId142" name="Control 12"/>
+        <control shapeId="1086" r:id="rId142" name="Control 62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId143" name="Control 11">
+        <control shapeId="1087" r:id="rId143" name="Control 63">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>65</xdr:row>
+                <xdr:rowOff>366713</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId143" name="Control 11"/>
+        <control shapeId="1087" r:id="rId143" name="Control 63"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId144" name="Control 10">
+        <control shapeId="1088" r:id="rId144" name="Control 64">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>366713</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId144" name="Control 10"/>
+        <control shapeId="1088" r:id="rId144" name="Control 64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId145" name="Control 9">
+        <control shapeId="1089" r:id="rId145" name="Control 65">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>409575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId145" name="Control 9"/>
+        <control shapeId="1089" r:id="rId145" name="Control 65"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId146" name="Control 8">
+        <control shapeId="1090" r:id="rId146" name="Control 66">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId146" name="Control 8"/>
+        <control shapeId="1090" r:id="rId146" name="Control 66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId147" name="Control 7">
+        <control shapeId="1091" r:id="rId147" name="Control 67">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>376238</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>77</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId147" name="Control 7"/>
+        <control shapeId="1091" r:id="rId147" name="Control 67"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId148" name="Control 6">
+        <control shapeId="1092" r:id="rId148" name="Control 68">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>77</xdr:row>
+                <xdr:rowOff>371475</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>78</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId148" name="Control 6"/>
+        <control shapeId="1092" r:id="rId148" name="Control 68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId149" name="Control 5">
+        <control shapeId="1093" r:id="rId149" name="Control 69">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>78</xdr:row>
+                <xdr:rowOff>366713</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>79</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId149" name="Control 5"/>
+        <control shapeId="1093" r:id="rId149" name="Control 69"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId150" name="Control 4">
+        <control shapeId="1094" r:id="rId150" name="Control 70">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>79</xdr:row>
+                <xdr:rowOff>319088</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>80</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId150" name="Control 4"/>
+        <control shapeId="1094" r:id="rId150" name="Control 70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId151" name="Control 3">
+        <control shapeId="1095" r:id="rId151" name="Control 71">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>80</xdr:row>
+                <xdr:rowOff>319088</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>81</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId151" name="Control 3"/>
+        <control shapeId="1095" r:id="rId151" name="Control 71"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId152" name="Control 2">
+        <control shapeId="1096" r:id="rId152" name="Control 72">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>81</xdr:row>
+                <xdr:rowOff>319088</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>82</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId152" name="Control 2"/>
+        <control shapeId="1096" r:id="rId152" name="Control 72"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId153" name="Control 1">
+        <control shapeId="1097" r:id="rId153" name="Control 73">
           <controlPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>82</xdr:row>
+                <xdr:rowOff>319088</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
+                <xdr:row>83</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId153" name="Control 1"/>
+        <control shapeId="1097" r:id="rId153" name="Control 73"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
